--- a/application/config/xlsx_config/IMMO_DE_CONFIG.xlsx
+++ b/application/config/xlsx_config/IMMO_DE_CONFIG.xlsx
@@ -13,7 +13,11 @@
     <sheet name="WGGESUCHT" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="KLEINANZEIGEN" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="IMMOBILIENSCOUT" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="IMMOWELT" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">IMMO_DE!$A$1:$F$54</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="71">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -44,105 +48,126 @@
     <t xml:space="preserve">type of charts desired</t>
   </si>
   <si>
-    <t xml:space="preserve">expect_column_to_exist</t>
+    <t xml:space="preserve">expect_column_values_to_not_be_null</t>
   </si>
   <si>
     <t xml:space="preserve">ACHAT_LOC</t>
   </si>
   <si>
+    <t xml:space="preserve">{'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"keyword": "FILE_CHECK"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_in_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'value_set' : [1,2], 'mostly' : 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRESSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_ADRESSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_match_regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': '^[0-9]{5}$', 'mostly': 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_NOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_phone_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_TEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'country': 'DE', 'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCE_VILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'mostly': 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': '^[0-9]{4}$', 'mostly': 0.95}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNONCE_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNONCE_LINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_values_to_be_unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_column_value_lengths_to_be_between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNONCE_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'min_value': 0, 'max_value':255, 'mostly': 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'regex': '[0-9]{5}', 'mostly': 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_returning_row_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_CLIENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">{}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"keyword": "FILE_CHECK"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_not_be_null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_in_set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'value_set' : [1,2], 'mostly' : 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRESSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_ADRESSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">expect_column_values_to_be_of_type</t>
   </si>
   <si>
-    <t xml:space="preserve">AGENCE_CP</t>
+    <t xml:space="preserve">M2</t>
   </si>
   <si>
     <t xml:space="preserve">{'type_' : 'int', 'mostly' : 0.95}</t>
   </si>
   <si>
-    <t xml:space="preserve">Pro info</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validation</t>
   </si>
   <si>
-    <t xml:space="preserve">AGENCE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_NOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_phone_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_TEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'country': 'DE', 'mostly': 0.9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENCE_VILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNONCE_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNONCE_LINK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATEGORIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'mostly': 1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPARTEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_returning_row_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_CLIENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expect_column_values_to_be_unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
     <t xml:space="preserve">M2_TOTALE</t>
   </si>
   <si>
@@ -161,9 +186,6 @@
     <t xml:space="preserve">NOM</t>
   </si>
   <si>
-    <t xml:space="preserve">expect_column_values_to_match_regex</t>
-  </si>
-  <si>
     <t xml:space="preserve">PAYS_AD</t>
   </si>
   <si>
@@ -182,15 +204,9 @@
     <t xml:space="preserve">PIECE</t>
   </si>
   <si>
-    <t xml:space="preserve">expect_column_max_to_be_between</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRIX</t>
   </si>
   <si>
-    <t xml:space="preserve">{'min_value' : 0, 'max_value' : 400000000}</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRO_IND</t>
   </si>
   <si>
@@ -213,6 +229,18 @@
   </si>
   <si>
     <t xml:space="preserve">{'regex': '[A-Za-z ]+', 'mostly': 0.9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_returning_row_unique_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect_returning_row_count_on_conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'column_A':'PRO_IND','column_B':'PRO_IND_2','condition_A':['Y'],'meta' : {'usage':'DEALER_LISTINGS'}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'column_A':'PRO_IND','column_B':'PRO_IND_2','condition_A':['N'],'meta' : {'usage':'PRIVATE_LISTINGS'}}</t>
   </si>
 </sst>
 </file>
@@ -261,12 +289,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,6 +299,12 @@
       <color rgb="FFA6A6A6"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -343,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,19 +384,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,21 +480,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.85"/>
@@ -494,13 +530,13 @@
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -508,412 +544,409 @@
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>20</v>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
+      <c r="F10" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>32</v>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
+      <c r="C20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -921,231 +954,213 @@
       <c r="A31" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="B44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1153,162 +1168,182 @@
       <c r="A45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>61</v>
+      <c r="A53" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="A54" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:F54"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E20" type="list">
-      <formula1>#REF!!$AB$2:$AB$11</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E12 E15:E16 E20:E21 E23" type="list">
+      <formula1>#ref!!$ab$2:$ab$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F10 F13:F15" type="list">
-      <formula1>#REF!!$AC$2:$AC$7</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F6 F8:F12 F15:F16" type="list">
+      <formula1>#ref!!$ac$2:$ac$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1319,6 +1354,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1351,7 +1387,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1534,4 +1570,51 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>